--- a/pulseox-main-PCB/Project Outputs for pulseox-main-PCB/BOM/Bill of Materials-pulseox-main-PCB.xlsx
+++ b/pulseox-main-PCB/Project Outputs for pulseox-main-PCB/BOM/Bill of Materials-pulseox-main-PCB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2616" yWindow="108" windowWidth="18996" windowHeight="11760"/>
@@ -10,12 +10,12 @@
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
     <sheet name="Project Information" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="177">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -110,33 +110,48 @@
     <t>None</t>
   </si>
   <si>
-    <t>08/15/2017</t>
-  </si>
-  <si>
-    <t>1:28:05 PM</t>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>8:23:24 PM</t>
   </si>
   <si>
     <t>GliaX - pulseox</t>
   </si>
   <si>
-    <t>12</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>&lt;none&gt;</t>
   </si>
   <si>
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
+    <t>WR08X1002FTL</t>
+  </si>
+  <si>
+    <t>CRCW08054K70FKEA</t>
+  </si>
+  <si>
     <t>WCR0805-47KFI</t>
   </si>
   <si>
-    <t>WR08X1002FTL</t>
-  </si>
-  <si>
-    <t>CRCW08054K70FKEA</t>
+    <t>1776275-2</t>
   </si>
   <si>
     <t>CGA4J1X5R1C106K125AC</t>
   </si>
   <si>
+    <t>STM32F070F6P6</t>
+  </si>
+  <si>
+    <t>AT-2440-TWT-R</t>
+  </si>
+  <si>
+    <t>PS000036</t>
+  </si>
+  <si>
     <t>NX7002BK</t>
   </si>
   <si>
@@ -146,19 +161,31 @@
     <t>GRM21BR71C105KA01K</t>
   </si>
   <si>
-    <t>MCMR06X102 JTL</t>
-  </si>
-  <si>
-    <t>MCMR06X103 JTL</t>
+    <t>MCWR08X1002FTL</t>
+  </si>
+  <si>
+    <t>MCMR06X102JTL</t>
+  </si>
+  <si>
+    <t>MCMR06X103JTL</t>
+  </si>
+  <si>
+    <t>MCP1700T-3002E/TT</t>
   </si>
   <si>
     <t>MCP73831T-2ACI/OT</t>
   </si>
   <si>
+    <t>Loading...</t>
+  </si>
+  <si>
     <t>OS102011MA1QS1</t>
   </si>
   <si>
-    <t>10104110-0001LF</t>
+    <t>PTS645VH58-2LFS</t>
+  </si>
+  <si>
+    <t>HSMS-C190</t>
   </si>
   <si>
     <t/>
@@ -167,51 +194,72 @@
     <t>Manufacturer 1</t>
   </si>
   <si>
-    <t>WELWYN</t>
-  </si>
-  <si>
-    <t>WALSIN</t>
-  </si>
-  <si>
-    <t>VISHAY</t>
+    <t>Walsin Technologies</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>TT Welwyn</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
   </si>
   <si>
     <t>TDK</t>
   </si>
   <si>
-    <t>NEXPERIA</t>
-  </si>
-  <si>
-    <t>MURATA</t>
-  </si>
-  <si>
-    <t>MULTICOMP</t>
-  </si>
-  <si>
-    <t>MICROCHIP</t>
-  </si>
-  <si>
-    <t>C &amp; K COMPONENTS</t>
-  </si>
-  <si>
-    <t>AMPHENOL ICC (FCI)</t>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>Projects Unlimited</t>
+  </si>
+  <si>
+    <t>Pro Signal</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>Multicomp</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>ITT C&amp;K</t>
+  </si>
+  <si>
+    <t>Broadcom Avago</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>WALSIN - WR08X1002FTL - RES, THICK FILM, 10K, 1%, 150V, 0805</t>
+  </si>
+  <si>
+    <t>VISHAY - CRCW08054K70FKEA - RES, THICK FILM, 4K7, 1%, 0.125W, 0805</t>
+  </si>
+  <si>
     <t>WELWYN - WCR0805-47KFI - RES, THICK FILM, 47K, 1%, 0.125W, 0805</t>
   </si>
   <si>
-    <t>WALSIN - WR08X1002FTL - RES, THICK FILM, 10K, 1%, 150V, 0805</t>
-  </si>
-  <si>
-    <t>VISHAY - CRCW08054K70FKEA - RES, THICK FILM, 4K7, 1%, 0.125W, 0805</t>
+    <t>TE CONNECTIVITY - 1776275-2 - TERMINAL BLOCK, WIRE TO BRD, 2POS, 18AWG</t>
   </si>
   <si>
     <t>TDK - CGA4J1X5R1C106K125AC - CAP, MLCC, X5R, 10UF, 16V, 0805</t>
   </si>
   <si>
+    <t>STMICROELECTRONICS         STM32F070F6P6             32 Bit Microcontroller, Value Line, ARM Cortex-M0, 48 MHz, 32 KB, 6 KB, 20 Pins, TSSOP</t>
+  </si>
+  <si>
+    <t>AUDIO PIEZO TRANSDUCER 1-30V TH</t>
+  </si>
+  <si>
     <t>NEXPERIA - NX7002BK - MOSFET, N-CH, 60V, 0.27A, SOT-23-3</t>
   </si>
   <si>
@@ -221,19 +269,37 @@
     <t>MURATA - GRM21BR71C105KA01K - CAP, MLCC, X7R, 1UF, 16V, 0805</t>
   </si>
   <si>
+    <t>MULTICOMP         MCWR08X1002FTL            Surface Mount Chip Resistor, Thick Film, MCWR Series, 10 kohm, 125 mW,  1%, 150 V</t>
+  </si>
+  <si>
     <t>MULTICOMP - MCMR06X102 JTL - RES, CERAMIC, 1K, 5%, 0.1W, 0603</t>
   </si>
   <si>
     <t>MULTICOMP - MCMR06X103 JTL - RES, CERAMIC, 10K, 5%, 0.1W, 0603</t>
   </si>
   <si>
+    <t>MICROCHIP - MCP1700T-3002E/TT - IC, LDO REGULATOR, 0.25A, 6V, SOT23-3</t>
+  </si>
+  <si>
     <t>MICROCHIP - MCP73831T-2ACI/OT - LI-ION/LI-POLY CHARGE CONTROLLER</t>
   </si>
   <si>
+    <t>TE CONNECTIVITY         FSMRA4JH04             Tactile Switch, Non Illuminated, 1.57 N, 24 V, 50 mA, Solder, FSMRAJ Series</t>
+  </si>
+  <si>
     <t>C &amp; K COMPONENTS - OS102011MA1QS1 - SWITCH SLIDE SHORTING SPDT</t>
   </si>
   <si>
-    <t>AMPHENOL FCI - 10104110-0001LF - MICRO USB, 2.0 TYPE B, RECEPTACLE, SMT</t>
+    <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
+  </si>
+  <si>
+    <t>BROADCOM LIMITED - HSMS-C190 - LED, RED, 10MCD, 626NM</t>
+  </si>
+  <si>
+    <t>Header, 4-Pin</t>
+  </si>
+  <si>
+    <t>Header, 8-Pin</t>
   </si>
   <si>
     <t>Footprint</t>
@@ -242,25 +308,124 @@
     <t>RES0805</t>
   </si>
   <si>
+    <t>Block Terminal 3.5mm</t>
+  </si>
+  <si>
     <t>CAP0805</t>
   </si>
   <si>
+    <t>SOP127P600-8N</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>eth con</t>
+  </si>
+  <si>
     <t>SOT23</t>
   </si>
   <si>
     <t>RES0603</t>
   </si>
   <si>
+    <t>SOT23127P600-8N - duplicate</t>
+  </si>
+  <si>
     <t>SOT23127P600-8N</t>
   </si>
   <si>
+    <t>SW TH ANGLE_1</t>
+  </si>
+  <si>
     <t>SLIDE_SW</t>
   </si>
   <si>
-    <t>10118193</t>
-  </si>
-  <si>
-    <t>Category</t>
+    <t>SW TH ANGLE_2</t>
+  </si>
+  <si>
+    <t>LED0603</t>
+  </si>
+  <si>
+    <t>microUSB-CHINA</t>
+  </si>
+  <si>
+    <t>HDR1X4</t>
+  </si>
+  <si>
+    <t>HDR1X8</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>R4, R6</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>CON2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>BUZ1</t>
+  </si>
+  <si>
+    <t>CON3</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>C2, C16</t>
+  </si>
+  <si>
+    <t>C3, C4</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -272,13 +437,34 @@
     <t>Farnell</t>
   </si>
   <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
     <t>Supplier Part Number 1</t>
   </si>
   <si>
+    <t>2502671</t>
+  </si>
+  <si>
+    <t>1469923</t>
+  </si>
+  <si>
     <t>1099812</t>
   </si>
   <si>
-    <t>2502671</t>
+    <t>1098611</t>
+  </si>
+  <si>
+    <t>2210948RL</t>
+  </si>
+  <si>
+    <t>2488284</t>
+  </si>
+  <si>
+    <t>668-1103-ND</t>
+  </si>
+  <si>
+    <t>2787075</t>
   </si>
   <si>
     <t>2469640</t>
@@ -290,19 +476,31 @@
     <t>2688536</t>
   </si>
   <si>
+    <t>2446870</t>
+  </si>
+  <si>
     <t>2073354</t>
   </si>
   <si>
     <t>2073356</t>
   </si>
   <si>
+    <t>1331482</t>
+  </si>
+  <si>
     <t>1332158</t>
   </si>
   <si>
+    <t>1813692</t>
+  </si>
+  <si>
     <t>2435103</t>
   </si>
   <si>
-    <t>2293753</t>
+    <t>2320088</t>
+  </si>
+  <si>
+    <t>2497356</t>
   </si>
   <si>
     <t>Supplier Order Qty 1</t>
@@ -320,6 +518,12 @@
     <t>Supplier Currency 1</t>
   </si>
   <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
     <t>GBP</t>
   </si>
   <si>
@@ -329,10 +533,10 @@
     <t>&lt;Parameter Title not found&gt;</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>08/15/2017 1:28:05 PM</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>02/24/2018 8:23:24 PM</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -342,18 +546,12 @@
   </si>
   <si>
     <t>BOM</t>
-  </si>
-  <si>
-    <t>2078959</t>
-  </si>
-  <si>
-    <t>2210948</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
@@ -998,7 +1196,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1222,6 +1420,19 @@
     <xf numFmtId="2" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1244,15 +1455,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1262,6 +1479,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1285,29 +1505,111 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1592,6 +1894,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1607,7 +1912,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>441076</xdr:colOff>
+      <xdr:colOff>441075</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>108492</xdr:rowOff>
     </xdr:to>
@@ -1688,7 +1993,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1723,7 +2028,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1935,10 +2240,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1947,9 +2252,9 @@
     <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" style="74" customWidth="1"/>
     <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
@@ -1986,7 +2291,7 @@
       </c>
       <c r="D2" s="53"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="86" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="12"/>
@@ -2005,7 +2310,7 @@
       <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="13"/>
@@ -2028,7 +2333,7 @@
       <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="83" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="16"/>
@@ -2049,7 +2354,7 @@
       <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="84" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="18"/>
@@ -2089,10 +2394,10 @@
       <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="85" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="36"/>
@@ -2116,11 +2421,11 @@
       </c>
       <c r="D8" s="21">
         <f ca="1">TODAY()</f>
-        <v>42962</v>
+        <v>43155</v>
       </c>
       <c r="E8" s="22">
         <f ca="1">NOW()</f>
-        <v>42962.577039814816</v>
+        <v>43155.849730902781</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="20"/>
@@ -2138,856 +2443,1473 @@
       <c r="B9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="85" t="s">
+      <c r="C9" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="O9" s="93" t="s">
-        <v>100</v>
+      <c r="F9" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" s="100" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="28">
-        <f t="shared" ref="B10:B21" si="0">ROW(B10) - ROW($B$9)</f>
+        <f>ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="88" t="s">
+      <c r="C10" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="88" t="s">
-        <v>48</v>
+      <c r="F10" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>114</v>
       </c>
       <c r="H10" s="29">
-        <v>1</v>
-      </c>
-      <c r="I10" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="88" t="s">
-        <v>86</v>
+        <v>2</v>
+      </c>
+      <c r="I10" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="97" t="s">
+        <v>142</v>
       </c>
       <c r="K10" s="37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L10" s="37">
-        <v>26580</v>
+        <v>43713</v>
       </c>
       <c r="M10" s="76">
-        <v>2.0799999999999999E-2</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="N10" s="76">
-        <v>0.24959999999999999</v>
-      </c>
-      <c r="O10" s="94" t="s">
-        <v>101</v>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="O10" s="101" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
       <c r="B11" s="30">
-        <f t="shared" si="0"/>
+        <f>ROW(B11) - ROW($B$9)</f>
         <v>2</v>
       </c>
-      <c r="C11" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>48</v>
+      <c r="C11" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>115</v>
       </c>
       <c r="H11" s="31">
-        <v>2</v>
-      </c>
-      <c r="I11" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="87" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="93" t="s">
+        <v>143</v>
       </c>
       <c r="K11" s="38">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="L11" s="38">
-        <v>40041</v>
-      </c>
-      <c r="M11" s="77">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="N11" s="77">
-        <v>0.49919999999999998</v>
-      </c>
-      <c r="O11" s="95" t="s">
-        <v>101</v>
+        <v>3420</v>
+      </c>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="102" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
       <c r="B12" s="28">
-        <f t="shared" si="0"/>
+        <f>ROW(B12) - ROW($B$9)</f>
         <v>3</v>
       </c>
-      <c r="C12" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="88" t="s">
-        <v>48</v>
+      <c r="C12" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>116</v>
       </c>
       <c r="H12" s="29">
         <v>1</v>
       </c>
-      <c r="I12" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="88" t="s">
-        <v>109</v>
+      <c r="I12" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="97" t="s">
+        <v>144</v>
       </c>
       <c r="K12" s="37">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L12" s="37">
-        <v>34002</v>
-      </c>
-      <c r="M12" s="76">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="N12" s="76">
-        <v>0.26279999999999998</v>
-      </c>
-      <c r="O12" s="94" t="s">
-        <v>101</v>
+        <v>16160</v>
+      </c>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="101" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
-      <c r="B13" s="28">
-        <f t="shared" si="0"/>
+      <c r="B13" s="30">
+        <f>ROW(B13) - ROW($B$9)</f>
         <v>4</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="29">
-        <v>2</v>
-      </c>
-      <c r="I13" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="37">
-        <v>150</v>
-      </c>
-      <c r="L13" s="37">
-        <v>6904</v>
-      </c>
-      <c r="M13" s="76">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="N13" s="76">
-        <v>29.4</v>
-      </c>
-      <c r="O13" s="94" t="s">
-        <v>101</v>
+      <c r="C13" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="31">
+        <v>1</v>
+      </c>
+      <c r="I13" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="38">
+        <v>5</v>
+      </c>
+      <c r="L13" s="38">
+        <v>28930</v>
+      </c>
+      <c r="M13" s="77">
+        <v>0.24</v>
+      </c>
+      <c r="N13" s="77">
+        <v>1.2</v>
+      </c>
+      <c r="O13" s="102" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
-      <c r="B14" s="30">
-        <f t="shared" si="0"/>
+      <c r="B14" s="28">
+        <f>ROW(B14) - ROW($B$9)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="31">
+      <c r="C14" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="29">
         <v>1</v>
       </c>
-      <c r="I14" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="38">
-        <v>12</v>
-      </c>
-      <c r="L14" s="38">
-        <v>2141</v>
-      </c>
-      <c r="M14" s="77">
-        <v>4.6800000000000001E-2</v>
-      </c>
-      <c r="N14" s="77">
-        <v>0.56159999999999999</v>
-      </c>
-      <c r="O14" s="95" t="s">
-        <v>101</v>
+      <c r="I14" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="37">
+        <v>5</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0</v>
+      </c>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="101" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
-      <c r="B15" s="28">
-        <f t="shared" si="0"/>
+      <c r="B15" s="30">
+        <f>ROW(B15) - ROW($B$9)</f>
         <v>6</v>
       </c>
-      <c r="C15" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="29">
-        <v>3</v>
-      </c>
-      <c r="I15" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="37">
-        <v>36</v>
-      </c>
-      <c r="L15" s="37">
-        <v>3786</v>
-      </c>
-      <c r="M15" s="76">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="N15" s="76">
-        <v>1.8612</v>
-      </c>
-      <c r="O15" s="94" t="s">
-        <v>101</v>
+      <c r="C15" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="31">
+        <v>1</v>
+      </c>
+      <c r="I15" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="38">
+        <v>5</v>
+      </c>
+      <c r="L15" s="38">
+        <v>6081</v>
+      </c>
+      <c r="M15" s="77">
+        <v>2.11</v>
+      </c>
+      <c r="N15" s="77">
+        <v>10.55</v>
+      </c>
+      <c r="O15" s="102" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
-      <c r="B16" s="30">
-        <f t="shared" si="0"/>
+      <c r="B16" s="28">
+        <f>ROW(B16) - ROW($B$9)</f>
         <v>7</v>
       </c>
-      <c r="C16" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="31">
-        <v>11</v>
-      </c>
-      <c r="I16" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="38">
-        <v>132</v>
-      </c>
-      <c r="L16" s="38">
-        <v>18819</v>
-      </c>
-      <c r="M16" s="77">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="N16" s="77">
-        <v>5.1215999999999999</v>
-      </c>
-      <c r="O16" s="95" t="s">
-        <v>101</v>
+      <c r="C16" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="29">
+        <v>1</v>
+      </c>
+      <c r="I16" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="37">
+        <v>5</v>
+      </c>
+      <c r="L16" s="37">
+        <v>3084</v>
+      </c>
+      <c r="M16" s="76">
+        <v>1.87</v>
+      </c>
+      <c r="N16" s="76">
+        <v>9.35</v>
+      </c>
+      <c r="O16" s="101" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
-      <c r="B17" s="28">
-        <f t="shared" si="0"/>
+      <c r="B17" s="30">
+        <f>ROW(B17) - ROW($B$9)</f>
         <v>8</v>
       </c>
-      <c r="C17" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="29">
+      <c r="C17" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="31">
         <v>1</v>
       </c>
-      <c r="I17" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="37">
-        <v>12</v>
-      </c>
-      <c r="L17" s="37">
-        <v>7321</v>
-      </c>
-      <c r="M17" s="76">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="N17" s="76">
-        <v>8.8800000000000004E-2</v>
-      </c>
-      <c r="O17" s="94" t="s">
-        <v>101</v>
+      <c r="I17" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38">
+        <v>0</v>
+      </c>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="102" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
-      <c r="B18" s="30">
-        <f t="shared" si="0"/>
+      <c r="B18" s="28">
+        <f>ROW(B18) - ROW($B$9)</f>
         <v>9</v>
       </c>
-      <c r="C18" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="31">
+      <c r="C18" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="29">
         <v>1</v>
       </c>
-      <c r="I18" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="38">
-        <v>12</v>
-      </c>
-      <c r="L18" s="38">
-        <v>17902</v>
-      </c>
-      <c r="M18" s="77">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="N18" s="77">
-        <v>8.8800000000000004E-2</v>
-      </c>
-      <c r="O18" s="95" t="s">
-        <v>101</v>
+      <c r="I18" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="37">
+        <v>5</v>
+      </c>
+      <c r="L18" s="37">
+        <v>175</v>
+      </c>
+      <c r="M18" s="76">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="N18" s="76">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="O18" s="101" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
       <c r="B19" s="30">
-        <f t="shared" si="0"/>
+        <f>ROW(B19) - ROW($B$9)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="87" t="s">
-        <v>48</v>
+      <c r="C19" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>123</v>
       </c>
       <c r="H19" s="31">
-        <v>1</v>
-      </c>
-      <c r="I19" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="87" t="s">
-        <v>93</v>
+        <v>2</v>
+      </c>
+      <c r="I19" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="93" t="s">
+        <v>151</v>
       </c>
       <c r="K19" s="38">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L19" s="38">
-        <v>51759</v>
+        <v>4457</v>
       </c>
       <c r="M19" s="77">
-        <v>0.40699999999999997</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="N19" s="77">
-        <v>4.8840000000000003</v>
-      </c>
-      <c r="O19" s="95" t="s">
-        <v>101</v>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O19" s="102" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
       <c r="B20" s="28">
-        <f t="shared" si="0"/>
+        <f>ROW(B20) - ROW($B$9)</f>
         <v>11</v>
       </c>
-      <c r="C20" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="88" t="s">
-        <v>48</v>
+      <c r="C20" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="94" t="s">
+        <v>124</v>
       </c>
       <c r="H20" s="29">
-        <v>1</v>
-      </c>
-      <c r="I20" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="88" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="I20" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="97" t="s">
+        <v>152</v>
       </c>
       <c r="K20" s="37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L20" s="37">
-        <v>1737</v>
+        <v>15026</v>
       </c>
       <c r="M20" s="76">
-        <v>0.3</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="N20" s="76">
-        <v>3.6</v>
-      </c>
-      <c r="O20" s="94" t="s">
-        <v>101</v>
+        <v>1.03</v>
+      </c>
+      <c r="O20" s="101" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
-      <c r="B21" s="28">
-        <f t="shared" si="0"/>
+      <c r="B21" s="30">
+        <f>ROW(B21) - ROW($B$9)</f>
         <v>12</v>
       </c>
-      <c r="C21" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="88" t="s">
+      <c r="C21" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="31">
+        <v>1</v>
+      </c>
+      <c r="I21" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="38">
+        <v>5</v>
+      </c>
+      <c r="L21" s="38">
+        <v>2650000</v>
+      </c>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="28">
+        <f>ROW(B22) - ROW($B$9)</f>
+        <v>13</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="29">
+        <v>1</v>
+      </c>
+      <c r="I22" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="37">
+        <v>5</v>
+      </c>
+      <c r="L22" s="37">
+        <v>11690</v>
+      </c>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="30">
+        <f>ROW(B23) - ROW($B$9)</f>
+        <v>14</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="31">
+        <v>1</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="38">
+        <v>5</v>
+      </c>
+      <c r="L23" s="38">
+        <v>11369</v>
+      </c>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="28">
+        <f>ROW(B24) - ROW($B$9)</f>
+        <v>15</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="29">
+        <v>1</v>
+      </c>
+      <c r="I24" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="37">
+        <v>5</v>
+      </c>
+      <c r="L24" s="37">
+        <v>25139</v>
+      </c>
+      <c r="M24" s="76">
+        <v>0.34</v>
+      </c>
+      <c r="N24" s="76">
+        <v>1.7</v>
+      </c>
+      <c r="O24" s="101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="30">
+        <f>ROW(B25) - ROW($B$9)</f>
+        <v>16</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="31">
+        <v>1</v>
+      </c>
+      <c r="I25" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="38">
+        <v>5</v>
+      </c>
+      <c r="L25" s="38">
+        <v>41449</v>
+      </c>
+      <c r="M25" s="77">
+        <v>0.52</v>
+      </c>
+      <c r="N25" s="77">
+        <v>2.6</v>
+      </c>
+      <c r="O25" s="102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="28">
+        <f>ROW(B26) - ROW($B$9)</f>
+        <v>17</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="29">
+        <v>1</v>
+      </c>
+      <c r="I26" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
+      <c r="B27" s="30">
+        <f>ROW(B27) - ROW($B$9)</f>
+        <v>18</v>
+      </c>
+      <c r="C27" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="31">
+        <v>1</v>
+      </c>
+      <c r="I27" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="38">
+        <v>5</v>
+      </c>
+      <c r="L27" s="38">
+        <v>1441</v>
+      </c>
+      <c r="M27" s="77">
+        <v>0.249</v>
+      </c>
+      <c r="N27" s="77">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="O27" s="102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="28">
+        <f>ROW(B28) - ROW($B$9)</f>
+        <v>19</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="29">
+        <v>1</v>
+      </c>
+      <c r="I28" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="37">
+        <v>5</v>
+      </c>
+      <c r="L28" s="37">
+        <v>7080</v>
+      </c>
+      <c r="M28" s="76">
+        <v>0.189</v>
+      </c>
+      <c r="N28" s="76">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="O28" s="101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="30">
+        <f>ROW(B29) - ROW($B$9)</f>
+        <v>20</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="29">
+      <c r="E29" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="31">
         <v>1</v>
       </c>
-      <c r="I21" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21" s="37">
-        <v>12</v>
-      </c>
-      <c r="L21" s="37">
-        <v>28387</v>
-      </c>
-      <c r="M21" s="76">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="N21" s="76">
-        <v>5.7720000000000002</v>
-      </c>
-      <c r="O21" s="94" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="43">
-        <f>SUM(H10:H21)</f>
+      <c r="I29" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="J29" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38">
+        <v>11495</v>
+      </c>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="28">
+        <f>ROW(B30) - ROW($B$9)</f>
+        <v>21</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="29">
+        <v>1</v>
+      </c>
+      <c r="I30" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52"/>
+      <c r="B31" s="30">
+        <f>ROW(B31) - ROW($B$9)</f>
+        <v>22</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52"/>
+      <c r="B32" s="28">
+        <f>ROW(B32) - ROW($B$9)</f>
+        <v>23</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="29">
+        <v>1</v>
+      </c>
+      <c r="I32" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="43">
+        <f>SUM(H10:H32)</f>
         <v>26</v>
       </c>
-      <c r="I22" s="70"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="43">
-        <f>SUM(K10:K21)</f>
-        <v>438</v>
-      </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42">
-        <f>SUM(N10:N21)</f>
-        <v>52.389599999999994</v>
-      </c>
-      <c r="O22" s="63"/>
-    </row>
-    <row r="23" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="99" t="s">
+      <c r="I33" s="70"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="43">
+        <f>SUM(K10:K32)</f>
+        <v>100</v>
+      </c>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42">
+        <f>SUM(N10:N32)</f>
+        <v>31.366000000000007</v>
+      </c>
+      <c r="O33" s="63"/>
+    </row>
+    <row r="34" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="52"/>
+      <c r="B34" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="46" t="s">
+      <c r="C34" s="78"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="62"/>
-    </row>
-    <row r="24" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="75" t="s">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="62"/>
+    </row>
+    <row r="35" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="52"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="83" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="75"/>
-      <c r="J24" s="41" t="s">
+      <c r="I35" s="75"/>
+      <c r="J35" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="36"/>
-      <c r="L24" s="100">
-        <f>N22</f>
-        <v>52.389599999999994</v>
-      </c>
-      <c r="M24" s="101"/>
-      <c r="N24" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="O24" s="62"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="45" t="s">
+      <c r="K35" s="36"/>
+      <c r="L35" s="79">
+        <f>N33</f>
+        <v>31.366000000000007</v>
+      </c>
+      <c r="M35" s="80"/>
+      <c r="N35" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="62"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="52"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="102">
-        <f>L24/H24</f>
-        <v>4.3657999999999992</v>
-      </c>
-      <c r="M25" s="102"/>
-      <c r="N25" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="O25" s="62"/>
-    </row>
-    <row r="26" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="64"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="81">
+        <f>L35/H35</f>
+        <v>6.273200000000001</v>
+      </c>
+      <c r="M36" s="81"/>
+      <c r="N36" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="62"/>
+    </row>
+    <row r="37" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="55"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="64"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="L10:L11">
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N11">
-    <cfRule type="containsBlanks" dxfId="28" priority="40">
+    <cfRule type="containsBlanks" dxfId="42" priority="44">
       <formula>LEN(TRIM(N10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="27" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsBlanks" dxfId="26" priority="37">
+    <cfRule type="containsBlanks" dxfId="40" priority="41">
       <formula>LEN(TRIM(N12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="23" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="containsBlanks" dxfId="22" priority="33">
+    <cfRule type="containsBlanks" dxfId="38" priority="39">
       <formula>LEN(TRIM(N13))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="containsBlanks" dxfId="16" priority="27">
+    <cfRule type="containsBlanks" dxfId="36" priority="37">
       <formula>LEN(TRIM(N14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="15" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="containsBlanks" dxfId="14" priority="25">
+    <cfRule type="containsBlanks" dxfId="34" priority="35">
       <formula>LEN(TRIM(N15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsBlanks" dxfId="12" priority="23">
+    <cfRule type="containsBlanks" dxfId="32" priority="33">
       <formula>LEN(TRIM(N16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="containsBlanks" dxfId="10" priority="21">
+    <cfRule type="containsBlanks" dxfId="30" priority="31">
       <formula>LEN(TRIM(N17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsBlanks" dxfId="8" priority="19">
+    <cfRule type="containsBlanks" dxfId="28" priority="29">
       <formula>LEN(TRIM(N18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="containsBlanks" dxfId="4" priority="15">
+    <cfRule type="containsBlanks" dxfId="26" priority="27">
       <formula>LEN(TRIM(N19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsBlanks" dxfId="2" priority="13">
+    <cfRule type="containsBlanks" dxfId="24" priority="25">
       <formula>LEN(TRIM(N20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="containsBlanks" dxfId="0" priority="9">
+    <cfRule type="containsBlanks" dxfId="22" priority="23">
       <formula>LEN(TRIM(N21))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22">
+    <cfRule type="containsBlanks" dxfId="20" priority="21">
+      <formula>LEN(TRIM(N22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="containsBlanks" dxfId="18" priority="19">
+      <formula>LEN(TRIM(N23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24">
+    <cfRule type="containsBlanks" dxfId="16" priority="17">
+      <formula>LEN(TRIM(N24))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
+      <formula>LEN(TRIM(N25))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="containsBlanks" dxfId="12" priority="13">
+      <formula>LEN(TRIM(N26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
+      <formula>LEN(TRIM(N27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(N28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(N29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(N30))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(N31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(N32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2" tooltip="Manufacturer" display="'WR08X1002FTL"/>
+    <hyperlink ref="C11" r:id="rId3" tooltip="Manufacturer" display="'CRCW08054K70FKEA"/>
+    <hyperlink ref="C12" r:id="rId4" tooltip="Manufacturer" display="'WCR0805-47KFI"/>
+    <hyperlink ref="C13" r:id="rId5" tooltip="Manufacturer" display="'1776275-2"/>
+    <hyperlink ref="C14" r:id="rId6" tooltip="Manufacturer" display="'CGA4J1X5R1C106K125AC"/>
+    <hyperlink ref="C15" r:id="rId7" tooltip="Manufacturer" display="'STM32F070F6P6"/>
+    <hyperlink ref="C16" r:id="rId8" tooltip="Manufacturer" display="'AT-2440-TWT-R"/>
+    <hyperlink ref="C17" r:id="rId9" tooltip="Manufacturer" display="'PS000036"/>
+    <hyperlink ref="C18" r:id="rId10" tooltip="Manufacturer" display="'NX7002BK"/>
+    <hyperlink ref="C19" r:id="rId11" tooltip="Manufacturer" display="'GRM219R71C104KA01D"/>
+    <hyperlink ref="C20" r:id="rId12" tooltip="Manufacturer" display="'GRM21BR71C105KA01K"/>
+    <hyperlink ref="C21" r:id="rId13" tooltip="Manufacturer" display="'MCWR08X1002FTL"/>
+    <hyperlink ref="C22" r:id="rId14" tooltip="Manufacturer" display="'MCMR06X102JTL"/>
+    <hyperlink ref="C23" r:id="rId15" tooltip="Manufacturer" display="'MCMR06X103JTL"/>
+    <hyperlink ref="C24" r:id="rId16" tooltip="Manufacturer" display="'MCP1700T-3002E/TT"/>
+    <hyperlink ref="C25" r:id="rId17" tooltip="Manufacturer" display="'MCP73831T-2ACI/OT"/>
+    <hyperlink ref="C26" r:id="rId18" tooltip="Manufacturer" display="'Loading..."/>
+    <hyperlink ref="C27" r:id="rId19" tooltip="Manufacturer" display="'OS102011MA1QS1"/>
+    <hyperlink ref="C28" r:id="rId20" tooltip="Manufacturer" display="'PTS645VH58-2LFS"/>
+    <hyperlink ref="C29" r:id="rId21" tooltip="Manufacturer" display="'HSMS-C190"/>
+    <hyperlink ref="C30" tooltip="Manufacturer" display="'"/>
+    <hyperlink ref="C31" tooltip="Manufacturer" display="'"/>
+    <hyperlink ref="C32" tooltip="Manufacturer" display="'"/>
+    <hyperlink ref="D10" r:id="rId22" tooltip="Component" display="'Walsin Technologies"/>
+    <hyperlink ref="D11" r:id="rId23" tooltip="Component" display="'Vishay"/>
+    <hyperlink ref="D12" r:id="rId24" tooltip="Component" display="'TT Welwyn"/>
+    <hyperlink ref="D13" r:id="rId25" tooltip="Component" display="'TE Connectivity"/>
+    <hyperlink ref="D14" r:id="rId26" tooltip="Component" display="'TDK"/>
+    <hyperlink ref="D15" r:id="rId27" tooltip="Component" display="'STMicroelectronics"/>
+    <hyperlink ref="D16" r:id="rId28" tooltip="Component" display="'Projects Unlimited"/>
+    <hyperlink ref="D17" r:id="rId29" tooltip="Component" display="'Pro Signal"/>
+    <hyperlink ref="D18" r:id="rId30" tooltip="Component" display="'NXP Semiconductors"/>
+    <hyperlink ref="D19" r:id="rId31" tooltip="Component" display="'Murata"/>
+    <hyperlink ref="D20" r:id="rId32" tooltip="Component" display="'Murata"/>
+    <hyperlink ref="D21" r:id="rId33" tooltip="Component" display="'Multicomp"/>
+    <hyperlink ref="D22" r:id="rId34" tooltip="Component" display="'Multicomp"/>
+    <hyperlink ref="D23" r:id="rId35" tooltip="Component" display="'Multicomp"/>
+    <hyperlink ref="D24" r:id="rId36" tooltip="Component" display="'Microchip"/>
+    <hyperlink ref="D25" r:id="rId37" tooltip="Component" display="'Microchip"/>
+    <hyperlink ref="D26" r:id="rId38" tooltip="Component" display="'Loading..."/>
+    <hyperlink ref="D27" r:id="rId39" tooltip="Component" display="'ITT C&amp;K"/>
+    <hyperlink ref="D28" r:id="rId40" tooltip="Component" display="'ITT C&amp;K"/>
+    <hyperlink ref="D29" r:id="rId41" tooltip="Component" display="'Broadcom Avago"/>
+    <hyperlink ref="D30" tooltip="Component" display="'"/>
+    <hyperlink ref="D31" tooltip="Component" display="'"/>
+    <hyperlink ref="D32" tooltip="Component" display="'"/>
+    <hyperlink ref="J10" r:id="rId42" tooltip="Supplier" display="'2502671"/>
+    <hyperlink ref="J11" r:id="rId43" tooltip="Supplier" display="'1469923"/>
+    <hyperlink ref="J12" r:id="rId44" tooltip="Supplier" display="'1099812"/>
+    <hyperlink ref="J13" r:id="rId45" tooltip="Supplier" display="'1098611"/>
+    <hyperlink ref="J14" r:id="rId46" tooltip="Supplier" display="'2210948RL"/>
+    <hyperlink ref="J15" r:id="rId47" tooltip="Supplier" display="'2488284"/>
+    <hyperlink ref="J16" r:id="rId48" tooltip="Supplier" display="'668-1103-ND"/>
+    <hyperlink ref="J17" r:id="rId49" tooltip="Supplier" display="'2787075"/>
+    <hyperlink ref="J18" r:id="rId50" tooltip="Supplier" display="'2469640"/>
+    <hyperlink ref="J19" r:id="rId51" tooltip="Supplier" display="'2611934"/>
+    <hyperlink ref="J20" r:id="rId52" tooltip="Supplier" display="'2688536"/>
+    <hyperlink ref="J21" r:id="rId53" tooltip="Supplier" display="'2446870"/>
+    <hyperlink ref="J22" r:id="rId54" tooltip="Supplier" display="'2073354"/>
+    <hyperlink ref="J23" r:id="rId55" tooltip="Supplier" display="'2073356"/>
+    <hyperlink ref="J24" r:id="rId56" tooltip="Supplier" display="'1331482"/>
+    <hyperlink ref="J25" r:id="rId57" tooltip="Supplier" display="'1332158"/>
+    <hyperlink ref="J26" r:id="rId58" tooltip="Supplier" display="'1813692"/>
+    <hyperlink ref="J27" r:id="rId59" tooltip="Supplier" display="'2435103"/>
+    <hyperlink ref="J28" r:id="rId60" tooltip="Supplier" display="'2320088"/>
+    <hyperlink ref="J29" r:id="rId61" tooltip="Supplier" display="'2497356"/>
+    <hyperlink ref="J30" tooltip="Supplier" display="'"/>
+    <hyperlink ref="J31" tooltip="Supplier" display="'"/>
+    <hyperlink ref="J32" tooltip="Supplier" display="'"/>
   </hyperlinks>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.59055118110236227" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId62"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;LCreated by FEDEVEL&amp;CMotherboard, Processor and Microcontroller Board Design&amp;Rhttp://www.fedevel.com</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId63"/>
 </worksheet>
 </file>
 
@@ -3010,15 +3932,15 @@
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
-        <v>102</v>
+      <c r="B1" s="103" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="104" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3026,7 +3948,7 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="105" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3034,7 +3956,7 @@
       <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="104" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3042,31 +3964,31 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="98" t="s">
-        <v>102</v>
+      <c r="B5" s="105" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="97" t="s">
-        <v>103</v>
+      <c r="B6" s="104" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="98" t="s">
-        <v>104</v>
+      <c r="B7" s="105" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="104" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3074,7 +3996,7 @@
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="105" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3082,40 +4004,40 @@
       <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="97" t="s">
-        <v>105</v>
+      <c r="B10" s="104" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="98" t="s">
-        <v>106</v>
+      <c r="B11" s="105" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="97" t="s">
-        <v>107</v>
+      <c r="B12" s="104" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="98" t="s">
-        <v>108</v>
+      <c r="B13" s="105" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="97" t="s">
-        <v>106</v>
+      <c r="B14" s="104" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
